--- a/biology/Zoologie/Dicaeum_virescens/Dicaeum_virescens.xlsx
+++ b/biology/Zoologie/Dicaeum_virescens/Dicaeum_virescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicaeum virescens est une espèce de passereaux placée dans la famille des Dicaeidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un très petit oiseau trapu de 9 cm de longueur, avec une queue courte, un bec court, épais et recourbé et à la langue tubulaire. Il a un dos vert, une poitrine vert pâle et un ventre jaune.
 </t>
@@ -542,7 +556,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa langue tubulaire montre l'importance de nectar dans son régime alimentaire, bien qu'il se nourrisse également de baies, d'araignées et d'insectes. 
 </t>
@@ -573,7 +589,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond deux ou trois œufs dans un nid suspendu comme un sac à un arbre ou un buisson. 
 </t>
@@ -604,7 +622,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans les îles Andaman en Inde.
 </t>
@@ -635,7 +655,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit à l'orée des bois, dans les champs et les arbres isolés, souvent dans des régions montagneuses.
 </t>
@@ -666,7 +688,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour certains ornithologistes, c'est une sous-espèce de Dicée concolore.
 </t>
